--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1287.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1287.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8228274438422504</v>
+        <v>1.136025667190552</v>
       </c>
       <c r="B1">
-        <v>1.501018951178218</v>
+        <v>2.290764093399048</v>
       </c>
       <c r="C1">
-        <v>5.144628520952581</v>
+        <v>11.14107227325439</v>
       </c>
       <c r="D1">
-        <v>3.820677006800593</v>
+        <v>2.139928102493286</v>
       </c>
       <c r="E1">
-        <v>1.523672702629367</v>
+        <v>1.275053381919861</v>
       </c>
     </row>
   </sheetData>
